--- a/Time plans/Overall Gantt Chart.xlsx
+++ b/Time plans/Overall Gantt Chart.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a55c70ec3f8847aa/Documents/Uni Work/LDPS IV/FM Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\FM\Time plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -178,12 +180,39 @@
   <si>
     <t>PCB Slack (Design &amp; Review)</t>
   </si>
+  <si>
+    <t>Tasks completed</t>
+  </si>
+  <si>
+    <t>PIC setup</t>
+  </si>
+  <si>
+    <t>I2C Implementation</t>
+  </si>
+  <si>
+    <t>I2C Setup</t>
+  </si>
+  <si>
+    <t>Radio I2C</t>
+  </si>
+  <si>
+    <t>Tasks removed</t>
+  </si>
+  <si>
+    <t>Tasks slipped</t>
+  </si>
+  <si>
+    <t>PCB Review</t>
+  </si>
+  <si>
+    <t>Last updated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +222,14 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -360,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +441,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,11 +1091,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="462924160"/>
-        <c:axId val="462924552"/>
+        <c:axId val="298116704"/>
+        <c:axId val="298116312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="462924160"/>
+        <c:axId val="298116704"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1155,7 +1194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462924552"/>
+        <c:crossAx val="298116312"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="462924552"/>
+        <c:axId val="298116312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42"/>
@@ -1276,7 +1315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462924160"/>
+        <c:crossAx val="298116704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -2203,18 +2242,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="9260" ySplit="3260" topLeftCell="H11"/>
       <selection activeCell="W14" sqref="W14"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+    </sheetView>
+    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="1">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2275,7 @@
       </c>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2292,7 +2338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -2308,7 +2354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -2324,7 +2370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2371,7 +2417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2402,7 +2448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2418,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -2466,7 +2512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -2514,7 +2560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
@@ -2529,7 +2575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
@@ -2562,7 +2608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
@@ -2577,7 +2623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
@@ -2594,7 +2640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +2656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
@@ -2631,4 +2677,93 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="16">
+        <v>42065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Time plans/Overall Gantt Chart.xlsx
+++ b/Time plans/Overall Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\FM\Time plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuart\OneDrive\Documents\GitHub\FM\Time plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="1"/>
+    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1091,11 +1090,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="298116704"/>
-        <c:axId val="298116312"/>
+        <c:axId val="169737824"/>
+        <c:axId val="169608232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298116704"/>
+        <c:axId val="169737824"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1127,7 +1126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1194,7 +1192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298116312"/>
+        <c:crossAx val="169608232"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1202,7 +1200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298116312"/>
+        <c:axId val="169608232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42"/>
@@ -1254,7 +1252,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1315,7 +1312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298116704"/>
+        <c:crossAx val="169737824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1330,7 +1327,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2243,7 +2239,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="9260" ySplit="3260" topLeftCell="H11"/>
+      <pane xSplit="9255" ySplit="3255" topLeftCell="H11"/>
       <selection activeCell="W14" sqref="W14"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -2253,14 +2249,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2271,7 @@
       </c>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2322,7 +2318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -2354,7 +2350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -2370,7 +2366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2448,7 +2444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -2464,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2527,7 +2523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
@@ -2543,7 +2539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
@@ -2575,7 +2571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2591,7 +2587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
@@ -2608,7 +2604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
@@ -2623,7 +2619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
@@ -2656,7 +2652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
@@ -2681,84 +2677,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="16">
+      <c r="C11" s="16">
         <v>42065</v>
       </c>
     </row>
